--- a/templates/role.xlsx
+++ b/templates/role.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,30 @@
   </si>
   <si>
     <t>prefabs/role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection sqref="A1:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -448,37 +472,37 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>10001</v>
+      <c r="A2" t="s">
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -487,7 +511,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -507,7 +531,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -536,7 +560,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -565,7 +589,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -594,7 +618,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>10006</v>
+        <v>10005</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -623,7 +647,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>10007</v>
+        <v>10006</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -652,7 +676,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>10008</v>
+        <v>10007</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -681,7 +705,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>10009</v>
+        <v>10008</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -710,30 +734,59 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11">
+        <v>10009</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12">
         <v>10010</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
         <v>10</v>
       </c>
     </row>
